--- a/biology/Zoologie/L'Aube_des_dragons/L'Aube_des_dragons.xlsx
+++ b/biology/Zoologie/L'Aube_des_dragons/L'Aube_des_dragons.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27Aube_des_dragons</t>
+          <t>L'Aube_des_dragons</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Aube des dragons (titre original : Dragonsdawn) est un roman de science-fiction écrit par Anne McCaffrey. Il fait partie de l'univers de la Ballade de Pern et en est le premier tome dans l'ordre chronologique. C'est dans ce livre qu'apparaissent pour la première fois les Fils, les lézards de feu, les dauphins, les dragons et les Chevaliers-Dragons.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27Aube_des_dragons</t>
+          <t>L'Aube_des_dragons</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après un voyage de 17 ans depuis la terre vers le Secteur du Sagittaire dans le système Rukbat, trois vaisseaux de colonisations arrivent enfin à leur destination Pern. Cette mission est menée par l'amiral Paul Benden qui est secondé par Emily Boll. La décision du site d'atterrissage étant prise, les 6000 colons sont réveillés et le débarquement peut commencer. Le camp est établi sur une île disposant de 3 volcans éteints et se nomme le Terminus. Peu après l'atterrissage, Sorka Hanrahan et Sean Connell découvrent le nid d'une créature de Pern que Sorka appelle "dragonet" et Sean "lézard". Ils assistent à une éclosion et marque 3 des créatures (Sorka a marqué un bronze tandis que Sean marquait 2 bruns).
 Alors que tout se passe bien, une menace s'annonce. Une "pluie" tombe sur Pern ravageant tout sur son passage. Les seules choses/personnes qui survivent sont celles protégées par les dragonets. Les colons calculent le temps et la durée de chaque "pluie" et leur donne le nom de "Chute" et les organismes la composant reçoivent le nom de "Fils". Chaque période de Chute dure de 40 à 50 ans avec un intervalle de 250 ans. Les fils peuvent être détruit par le feu, l'eau et l'HNO3.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%27Aube_des_dragons</t>
+          <t>L'Aube_des_dragons</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Technologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les colons arrivant sur Pern ont le désir d'y créer une société égalitaire, agraire et sans industrialisation importante. Les seuls éléments technologiques restants d'importance sont les trois vaisseaux de colonisation qui sont en orbite.
 </t>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%27Aube_des_dragons</t>
+          <t>L'Aube_des_dragons</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Espèces présentes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>les humains
 les dragonets/lézards de feu
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>L%27Aube_des_dragons</t>
+          <t>L'Aube_des_dragons</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +629,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Paul Benden
 Emily Boll
